--- a/biology/Zoologie/Conus_shaskyi/Conus_shaskyi.xlsx
+++ b/biology/Zoologie/Conus_shaskyi/Conus_shaskyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus shaskyi est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille atteint 35 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente dans les îles Cocos.
 </t>
@@ -576,10 +592,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus shaskyi a été décrite pour la première fois en 2012 par les malacologistes Manuel Jimenez Tenorio (d), John Keith Tucker et Henry William Chaney dans « A conchological iconography »[1],[2].
-Synonymes
-Conus (Dauciconus) shaskyi (Tenorio, J. K. Tucker &amp; Chaney, 2012) · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus shaskyi a été décrite pour la première fois en 2012 par les malacologistes Manuel Jimenez Tenorio (d), John Keith Tucker et Henry William Chaney dans « A conchological iconography »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_shaskyi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_shaskyi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Dauciconus) shaskyi (Tenorio, J. K. Tucker &amp; Chaney, 2012) · appellation alternative
 Dauciconus shaskyi Tenorio, J. K. Tucker &amp; Chaney, 2012 · non accepté (combinaison originale)</t>
         </is>
       </c>
